--- a/ClicckbankAdapter.js_url-tests.xlsx
+++ b/ClicckbankAdapter.js_url-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f1f96246d526ec/Projetos/google-auth-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{462A1F39-A2A5-4631-AFE2-875747DF1502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A2305C-04FF-49C0-9725-071782B378F4}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{462A1F39-A2A5-4631-AFE2-875747DF1502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73AB452-421F-403C-A4FF-CF7E6DD5A0EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{C465AEB8-D683-4A4D-BA7A-B7536DDAEE04}"/>
+    <workbookView xWindow="-96" yWindow="12600" windowWidth="23232" windowHeight="12696" xr2:uid="{C465AEB8-D683-4A4D-BA7A-B7536DDAEE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -923,19 +923,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6901C6-15D0-4E12-8CF2-26CBC23EB90E}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D7"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="103.6640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="35.109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA7C3A-C923-42F7-920D-33A6FAF15F86}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ClicckbankAdapter.js_url-tests.xlsx
+++ b/ClicckbankAdapter.js_url-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50f1f96246d526ec/Projetos/google-auth-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{462A1F39-A2A5-4631-AFE2-875747DF1502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73AB452-421F-403C-A4FF-CF7E6DD5A0EF}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{462A1F39-A2A5-4631-AFE2-875747DF1502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{330E4792-E1E6-45D1-9577-5B7BF1B20E8C}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="12600" windowWidth="23232" windowHeight="12696" xr2:uid="{C465AEB8-D683-4A4D-BA7A-B7536DDAEE04}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>https://253fci8-qnwhshtev8un0l4r2f.hop.clickbank.net</t>
   </si>
   <si>
-    <t>endobump</t>
-  </si>
-  <si>
     <t>https://5a52bee6jooh-i0aub-c-84z4f.hop.clickbank.net</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>3bottle25</t>
+  </si>
+  <si>
+    <t>endopump</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -943,13 +943,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -963,22 +963,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -993,19 +993,19 @@
         <v>curl --ssl-no-revoke -sS -X POST "https://api.pzadvisors.com/api/checkout" -H "Content-Type: application/json" -d "{\"offerData\":{\"affiliate_platform\":\"clickbank\",\"affiliate_id\":\"PZAFIL\",\"hoplink\":\"https://acb86hdylqwixht5z4thn-ll6i.hop.clickbank.net\"},\"trackingParams\":{\"user_id\":\"usr_debug_cli\",\"anon_id\":\"anon_debug_cli\",\"utm_source\":\"debug_cli\",\"utm_medium\":\"cpc\",\"campaignkey\":\"DEBUG_CB_ADAPTER\"}}" | jq ".finalCheckoutUrl | if (type==\"object\" and has(\"offers\")) then .offers else . end"</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1020,19 +1020,19 @@
         <v>curl --ssl-no-revoke -sS -X POST "https://api.pzadvisors.com/api/checkout" -H "Content-Type: application/json" -d "{\"offerData\":{\"affiliate_platform\":\"clickbank\",\"affiliate_id\":\"PZAFIL\",\"hoplink\":\"https://253fci8-qnwhshtev8un0l4r2f.hop.clickbank.net\"},\"trackingParams\":{\"user_id\":\"usr_debug_cli\",\"anon_id\":\"anon_debug_cli\",\"utm_source\":\"debug_cli\",\"utm_medium\":\"cpc\",\"campaignkey\":\"DEBUG_CB_ADAPTER\"}}" | jq ".finalCheckoutUrl | if (type==\"object\" and has(\"offers\")) then .offers else . end"</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1047,73 +1047,73 @@
         <v>curl --ssl-no-revoke -sS -X POST "https://api.pzadvisors.com/api/checkout" -H "Content-Type: application/json" -d "{\"offerData\":{\"affiliate_platform\":\"clickbank\",\"affiliate_id\":\"PZAFIL\",\"hoplink\":\"https://ae69co89oqqotktjdukf1rxrbk.hop.clickbank.net\"},\"trackingParams\":{\"user_id\":\"usr_debug_cli\",\"anon_id\":\"anon_debug_cli\",\"utm_source\":\"debug_cli\",\"utm_medium\":\"cpc\",\"campaignkey\":\"DEBUG_CB_ADAPTER\"}}" | jq ".finalCheckoutUrl | if (type==\"object\" and has(\"offers\")) then .offers else . end"</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>CONCATENATE($F$1,B6,$G$1)</f>
         <v>curl --ssl-no-revoke -sS -X POST "https://api.pzadvisors.com/api/checkout" -H "Content-Type: application/json" -d "{\"offerData\":{\"affiliate_platform\":\"clickbank\",\"affiliate_id\":\"PZAFIL\",\"hoplink\":\"https://5a52bee6jooh-i0aub-c-84z4f.hop.clickbank.net\"},\"trackingParams\":{\"user_id\":\"usr_debug_cli\",\"anon_id\":\"anon_debug_cli\",\"utm_source\":\"debug_cli\",\"utm_medium\":\"cpc\",\"campaignkey\":\"DEBUG_CB_ADAPTER\"}}" | jq ".finalCheckoutUrl | if (type==\"object\" and has(\"offers\")) then .offers else . end"</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>CONCATENATE($F$1,B7,$G$1)</f>
         <v>curl --ssl-no-revoke -sS -X POST "https://api.pzadvisors.com/api/checkout" -H "Content-Type: application/json" -d "{\"offerData\":{\"affiliate_platform\":\"clickbank\",\"affiliate_id\":\"PZAFIL\",\"hoplink\":\"https://5020fcavlgwl3d5m0irhlx9q4g.hop.clickbank.net\"},\"trackingParams\":{\"user_id\":\"usr_debug_cli\",\"anon_id\":\"anon_debug_cli\",\"utm_source\":\"debug_cli\",\"utm_medium\":\"cpc\",\"campaignkey\":\"DEBUG_CB_ADAPTER\"}}" | jq ".finalCheckoutUrl | if (type==\"object\" and has(\"offers\")) then .offers else . end"</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1141,150 +1141,150 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>54223</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>57699</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>54223</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>56425</v>
       </c>
       <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
         <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>56425</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>56425</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>60960</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>60960</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>60960</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>53915</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>53915</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>53915</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>53025</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <v>53025</v>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>53025</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>3546</v>
